--- a/planning_info/S_chartering_2021_Nordland_daily_totals.xlsx
+++ b/planning_info/S_chartering_2021_Nordland_daily_totals.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>fly_cost</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>fuel consumption litres</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>fuel consumption cost kDKK</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>day cost per all people</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>last activity</t>
         </is>
@@ -464,19 +474,325 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3787</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>transit to Greenland. bring any cargo from Iceland?</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>transit to Greenland. bring any cargo from Iceland?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2414</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>return to SFJ to overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>return to SFJ to overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-06-19</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1363</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>return to JAV to overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>return to JAV to overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3213</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>to UAK to overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>718</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>transit to KUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>transit to AEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>635.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16778</v>
+      </c>
+      <c r="E12" t="n">
+        <v>170.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>135</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>grand total (MDKK)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9405999999999999</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>grand total incl. quarantine (MDKK)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0156</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
